--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/73.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/73.xlsx
@@ -479,13 +479,13 @@
         <v>-0.104570573249414</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.318613736406358</v>
+        <v>-1.313928442082632</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1670519063853039</v>
+        <v>-0.1713137867626664</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1288409877981324</v>
+        <v>-0.1335379625065856</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.120474338538643</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.387624369471249</v>
+        <v>-1.387364480911067</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.2348433992942857</v>
+        <v>-0.2396659381385571</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1331262289449494</v>
+        <v>-0.1359558021451304</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1375112657942408</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.491249822675403</v>
+        <v>-1.49244998220613</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2814306137790005</v>
+        <v>-0.284524455683636</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1378086031724936</v>
+        <v>-0.14098420777022</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1467360886316498</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.643483196922089</v>
+        <v>-1.649720522366451</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2920042820533613</v>
+        <v>-0.2925561802317247</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1481384434156726</v>
+        <v>-0.1504876607939447</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1456529741456663</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.738278279272427</v>
+        <v>-1.744534585341971</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2910610909866342</v>
+        <v>-0.2918568171961795</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1658838679125769</v>
+        <v>-0.1656984418050315</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1372067997070585</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.57849207625147</v>
+        <v>-1.585298820451287</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2239718812093795</v>
+        <v>-0.2246595638601975</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1729008590374841</v>
+        <v>-0.1700975667029395</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1276411344825943</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.420190742138967</v>
+        <v>-1.423077257214694</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1472886954267638</v>
+        <v>-0.1504380191588538</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.152514207544126</v>
+        <v>-0.1517900236910353</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1191593177679693</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.150806029173949</v>
+        <v>-1.153261830062857</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.005983781140528979</v>
+        <v>-0.00929225011452809</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1299272635777684</v>
+        <v>-0.1274364215346782</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1118901168549008</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7799406736503212</v>
+        <v>-0.7802312232204119</v>
       </c>
       <c r="F10" t="n">
-        <v>0.08005247271244792</v>
+        <v>0.07706959446272145</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1172131648021355</v>
+        <v>-0.114246347081409</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1077133619746441</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.4048090576050583</v>
+        <v>-0.4010742545885138</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1232231746644363</v>
+        <v>0.1156396848802565</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.07302626937887462</v>
+        <v>-0.07191371273360218</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.1089624473526539</v>
       </c>
       <c r="E12" t="n">
-        <v>0.06464020506481569</v>
+        <v>0.07018546771408693</v>
       </c>
       <c r="F12" t="n">
-        <v>0.136341706761251</v>
+        <v>0.1297714903521618</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02782509245255285</v>
+        <v>0.02832880904391635</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.1124667417952056</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6054259574083978</v>
+        <v>0.611178546886578</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05581713445145443</v>
+        <v>0.04837818942827461</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1788568471204214</v>
+        <v>0.1827726961002385</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.1093407265532746</v>
       </c>
       <c r="E14" t="n">
-        <v>1.169518457427155</v>
+        <v>1.176387983694881</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.09153967917159692</v>
+        <v>-0.09616219142741385</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3077017109988414</v>
+        <v>0.3119489908952948</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.09258192381716636</v>
       </c>
       <c r="E15" t="n">
-        <v>1.817772509550163</v>
+        <v>1.822091331803071</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2603402191058243</v>
+        <v>-0.2606512093491879</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4895813617314289</v>
+        <v>0.4926226419047917</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-0.06198895161769737</v>
       </c>
       <c r="E16" t="n">
-        <v>2.445288038589904</v>
+        <v>2.454162210886447</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.4970505158443971</v>
+        <v>-0.4976695762349424</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6072232766083063</v>
+        <v>0.6121173578090323</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-0.02082645887545182</v>
       </c>
       <c r="E17" t="n">
-        <v>3.056516731175558</v>
+        <v>3.06657792257001</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6313530394866338</v>
+        <v>-0.6346293874026329</v>
       </c>
       <c r="G17" t="n">
-        <v>0.793931306377529</v>
+        <v>0.7978836565596188</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.02663273678059908</v>
       </c>
       <c r="E18" t="n">
-        <v>3.656297186680397</v>
+        <v>3.67237085611321</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.7541927255671462</v>
+        <v>-0.7584516858483269</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9361764916343089</v>
+        <v>0.9375284961664904</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.07530667709309181</v>
       </c>
       <c r="E19" t="n">
-        <v>4.190195892179163</v>
+        <v>4.206593692288158</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.9123976965056493</v>
+        <v>-0.9160098554825573</v>
       </c>
       <c r="G19" t="n">
-        <v>1.088596752036632</v>
+        <v>1.091024812011813</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.1219188543849114</v>
       </c>
       <c r="E20" t="n">
-        <v>4.733297280794925</v>
+        <v>4.751052925628467</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.127421898949955</v>
+        <v>-1.131790362837954</v>
       </c>
       <c r="G20" t="n">
-        <v>1.247622270002225</v>
+        <v>1.249888264639316</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.1658863150119536</v>
       </c>
       <c r="E21" t="n">
-        <v>5.192442984087257</v>
+        <v>5.214377286556978</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.283963875112913</v>
+        <v>-1.289674123196457</v>
       </c>
       <c r="G21" t="n">
-        <v>1.423623767120815</v>
+        <v>1.426790611429995</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.2069250068246374</v>
       </c>
       <c r="E22" t="n">
-        <v>5.595950634779331</v>
+        <v>5.618295210762597</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.490893570941221</v>
+        <v>-1.495980378489947</v>
       </c>
       <c r="G22" t="n">
-        <v>1.539174893131511</v>
+        <v>1.541100696563419</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.2442370764788634</v>
       </c>
       <c r="E23" t="n">
-        <v>5.867563381131076</v>
+        <v>5.893197445463159</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.6705262076619</v>
+        <v>-1.678541871680989</v>
       </c>
       <c r="G23" t="n">
-        <v>1.700069272653467</v>
+        <v>1.703792395285285</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.2767283170702958</v>
       </c>
       <c r="E24" t="n">
-        <v>6.172011148999267</v>
+        <v>6.196710782553169</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.843257927080899</v>
+        <v>-1.849401809447443</v>
       </c>
       <c r="G24" t="n">
-        <v>1.813970544321437</v>
+        <v>1.814668447308891</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.3037003222674881</v>
       </c>
       <c r="E25" t="n">
-        <v>6.383585257804755</v>
+        <v>6.407582608226931</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.978278064359817</v>
+        <v>-1.985527203131179</v>
       </c>
       <c r="G25" t="n">
-        <v>1.916718508622955</v>
+        <v>1.915113915771046</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.3246665887223049</v>
       </c>
       <c r="E26" t="n">
-        <v>6.483646733619001</v>
+        <v>6.505010157285177</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.084949177881607</v>
+        <v>-2.089691414080879</v>
       </c>
       <c r="G26" t="n">
-        <v>1.980299222837756</v>
+        <v>1.98011379673021</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.3388674353149279</v>
       </c>
       <c r="E27" t="n">
-        <v>6.536953089418078</v>
+        <v>6.558956014148072</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.173512044955901</v>
+        <v>-2.176854825060037</v>
       </c>
       <c r="G27" t="n">
-        <v>2.062399187037643</v>
+        <v>2.06147935674037</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.3457938017350803</v>
       </c>
       <c r="E28" t="n">
-        <v>6.64732396480223</v>
+        <v>6.668643587025679</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.23308784725734</v>
+        <v>-2.234395320322749</v>
       </c>
       <c r="G28" t="n">
-        <v>2.092171027659362</v>
+        <v>2.092952153387998</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.3455711001417835</v>
       </c>
       <c r="E29" t="n">
-        <v>6.583972478137701</v>
+        <v>6.605600170508332</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.293149115549006</v>
+        <v>-2.295050828187414</v>
       </c>
       <c r="G29" t="n">
-        <v>2.138089540118441</v>
+        <v>2.136592990825259</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.3388532923207377</v>
       </c>
       <c r="E30" t="n">
-        <v>6.550182585169802</v>
+        <v>6.575571361422613</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.328334814491814</v>
+        <v>-2.328851671515996</v>
       </c>
       <c r="G30" t="n">
-        <v>2.122537107854081</v>
+        <v>2.120853672405263</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.3265075406137328</v>
       </c>
       <c r="E31" t="n">
-        <v>6.461160532970916</v>
+        <v>6.485814905034</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.310212697587456</v>
+        <v>-2.30960020741332</v>
       </c>
       <c r="G31" t="n">
-        <v>2.105236998024904</v>
+        <v>2.101435032796178</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.3086384069636937</v>
       </c>
       <c r="E32" t="n">
-        <v>6.286074486005327</v>
+        <v>6.308243856217684</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.31582804254509</v>
+        <v>-2.3163003681025</v>
       </c>
       <c r="G32" t="n">
-        <v>2.042501651654739</v>
+        <v>2.040921879620376</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.284274949102973</v>
       </c>
       <c r="E33" t="n">
-        <v>6.102045644482922</v>
+        <v>6.128476895072642</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.33888366194863</v>
+        <v>-2.335043005445494</v>
       </c>
       <c r="G33" t="n">
-        <v>1.976535218859393</v>
+        <v>1.977872622910666</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.2527123097526456</v>
       </c>
       <c r="E34" t="n">
-        <v>5.86281530473944</v>
+        <v>5.88696304011498</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.381890108490391</v>
+        <v>-2.383964836827572</v>
       </c>
       <c r="G34" t="n">
-        <v>1.893195673830325</v>
+        <v>1.892599974209234</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.2144728090029676</v>
       </c>
       <c r="E35" t="n">
-        <v>5.637852554940319</v>
+        <v>5.662723014120858</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.369505980583304</v>
+        <v>-2.370749941556757</v>
       </c>
       <c r="G35" t="n">
-        <v>1.824363166632525</v>
+        <v>1.824739859039979</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.171309043459011</v>
       </c>
       <c r="E36" t="n">
-        <v>5.447903218409279</v>
+        <v>5.472634973021182</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.329765661620905</v>
+        <v>-2.335388306818994</v>
       </c>
       <c r="G36" t="n">
-        <v>1.736825983342094</v>
+        <v>1.735595162801458</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.124972452239204</v>
       </c>
       <c r="E37" t="n">
-        <v>5.08559958489074</v>
+        <v>5.108659584438552</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.269607300131194</v>
+        <v>-2.273728285867784</v>
       </c>
       <c r="G37" t="n">
-        <v>1.649699073565208</v>
+        <v>1.650188189675663</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.07697309206213666</v>
       </c>
       <c r="E38" t="n">
-        <v>4.810475422880359</v>
+        <v>4.839055864259898</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.164340752872858</v>
+        <v>-2.171273061208493</v>
       </c>
       <c r="G38" t="n">
-        <v>1.54992376717678</v>
+        <v>1.554105344909143</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.02826810389398876</v>
       </c>
       <c r="E39" t="n">
-        <v>4.517122560454983</v>
+        <v>4.544862014134158</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.146617959121363</v>
+        <v>-2.154025513110589</v>
       </c>
       <c r="G39" t="n">
-        <v>1.437665049611083</v>
+        <v>1.443140229951991</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-0.02003219953600601</v>
       </c>
       <c r="E40" t="n">
-        <v>4.248523353362874</v>
+        <v>4.274407085918503</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.117626514204235</v>
+        <v>-2.125177152906369</v>
       </c>
       <c r="G40" t="n">
-        <v>1.382327766917553</v>
+        <v>1.383459304188007</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-0.06676575883555294</v>
       </c>
       <c r="E41" t="n">
-        <v>3.954344103718044</v>
+        <v>3.97654267489222</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.027888308416759</v>
+        <v>-2.035260091227757</v>
       </c>
       <c r="G41" t="n">
-        <v>1.262140988218222</v>
+        <v>1.263123600583403</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-0.1107333874885422</v>
       </c>
       <c r="E42" t="n">
-        <v>3.699638714259021</v>
+        <v>3.719381484544289</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.933104176427102</v>
+        <v>-1.940518300632737</v>
       </c>
       <c r="G42" t="n">
-        <v>1.157259893655886</v>
+        <v>1.158338869195068</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-0.1510838717324234</v>
       </c>
       <c r="E43" t="n">
-        <v>3.428669849115367</v>
+        <v>3.450734095865179</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.865629513953848</v>
+        <v>-1.873370688931846</v>
       </c>
       <c r="G43" t="n">
-        <v>1.064273810890184</v>
+        <v>1.065636035759001</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-0.1872605035161947</v>
       </c>
       <c r="E44" t="n">
-        <v>3.160051661398076</v>
+        <v>3.183218244456524</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.825409569193586</v>
+        <v>-1.832430940462766</v>
       </c>
       <c r="G44" t="n">
-        <v>0.930146493018856</v>
+        <v>0.9335308844935823</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-0.2191245284887882</v>
       </c>
       <c r="E45" t="n">
-        <v>2.902340032919872</v>
+        <v>2.924354638034593</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.742559140274972</v>
+        <v>-1.747029807529334</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8098078693180701</v>
+        <v>0.811073731012888</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.2464910782341266</v>
       </c>
       <c r="E46" t="n">
-        <v>2.653739104528939</v>
+        <v>2.67379286505757</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.69438631356353</v>
+        <v>-1.697036300848529</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7686242928178085</v>
+        <v>0.7712363188524441</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.2692485901486645</v>
       </c>
       <c r="E47" t="n">
-        <v>2.353550296941928</v>
+        <v>2.373881466607832</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.647331883689725</v>
+        <v>-1.650389224392087</v>
       </c>
       <c r="G47" t="n">
-        <v>0.662033481941019</v>
+        <v>0.6629314115169278</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.287759368300711</v>
       </c>
       <c r="E48" t="n">
-        <v>2.162218294868798</v>
+        <v>2.180560879034884</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.613527390240916</v>
+        <v>-1.615991951418369</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5998062323064902</v>
+        <v>0.600591738179399</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.3025831609177962</v>
       </c>
       <c r="E49" t="n">
-        <v>1.964809572641306</v>
+        <v>1.983912841862755</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.564936989775474</v>
+        <v>-1.566128389017656</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5389412075407792</v>
+        <v>0.5388025029721429</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.3147506200020059</v>
       </c>
       <c r="E50" t="n">
-        <v>1.852680799355699</v>
+        <v>1.869886006058967</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.491949185710948</v>
+        <v>-1.491928745037675</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4775914468088866</v>
+        <v>0.4775169843562503</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.3257597070759659</v>
       </c>
       <c r="E51" t="n">
-        <v>1.676464675167747</v>
+        <v>1.692209833780106</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.434902186702963</v>
+        <v>-1.432666853075782</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4192844262984478</v>
+        <v>0.4202071766919021</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.3368493120270573</v>
       </c>
       <c r="E52" t="n">
-        <v>1.558072295572142</v>
+        <v>1.57371963096241</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.395126096562338</v>
+        <v>-1.391976772830248</v>
       </c>
       <c r="G52" t="n">
-        <v>0.3386299097085603</v>
+        <v>0.3389569604809238</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.3487400556571491</v>
       </c>
       <c r="E53" t="n">
-        <v>1.381797769460553</v>
+        <v>1.39310438187655</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.357440795287893</v>
+        <v>-1.354933892715803</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2717144456541237</v>
+        <v>0.2731146317733052</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.3617002512177723</v>
       </c>
       <c r="E54" t="n">
-        <v>1.329285679822931</v>
+        <v>1.344281833764654</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.338667496934989</v>
+        <v>-1.33545539113499</v>
       </c>
       <c r="G54" t="n">
-        <v>0.2200608642939558</v>
+        <v>0.2180985596597745</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.3754687180711092</v>
       </c>
       <c r="E55" t="n">
-        <v>1.207019792642145</v>
+        <v>1.219301717182869</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.302312299471363</v>
+        <v>-1.300450738155454</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1635044414445164</v>
+        <v>0.1667880896009701</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.3895476718325417</v>
       </c>
       <c r="E56" t="n">
-        <v>1.177052305576244</v>
+        <v>1.189753263919059</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.249861531853559</v>
+        <v>-1.246034745807287</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1029460267778963</v>
+        <v>0.1077671055740768</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.4034394360630381</v>
       </c>
       <c r="E57" t="n">
-        <v>1.086294256197269</v>
+        <v>1.099738379018356</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.241114383740925</v>
+        <v>-1.23959593372638</v>
       </c>
       <c r="G57" t="n">
-        <v>0.05966728126718066</v>
+        <v>0.06527532598436098</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.4175922757033876</v>
       </c>
       <c r="E58" t="n">
-        <v>1.032256416304647</v>
+        <v>1.046997061830461</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.203737152613662</v>
+        <v>-1.201401075668208</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.01766416586779857</v>
+        <v>-0.01185317446598195</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.4331464675633991</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9234682330510396</v>
+        <v>0.9377694041014903</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.11981358834823</v>
+        <v>-1.116251071006413</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.09431961073668707</v>
+        <v>-0.08760046942232524</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.4512914338368183</v>
       </c>
       <c r="E60" t="n">
-        <v>0.8985933937262282</v>
+        <v>0.9184704884358591</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.100884064849599</v>
+        <v>-1.098147934727236</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1213188200337707</v>
+        <v>-0.1133615579383183</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.4724513962963023</v>
       </c>
       <c r="E61" t="n">
-        <v>0.7660297873602637</v>
+        <v>0.7850834149466223</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.071207127353788</v>
+        <v>-1.067269377652608</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1500481863185812</v>
+        <v>-0.1416704303729471</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.4966181636829459</v>
       </c>
       <c r="E62" t="n">
-        <v>0.726398241980638</v>
+        <v>0.745460629855542</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.065769908263244</v>
+        <v>-1.062176729911518</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2252231424232883</v>
+        <v>-0.2181608898075629</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.5233061101996875</v>
       </c>
       <c r="E63" t="n">
-        <v>0.6351160353370261</v>
+        <v>0.6555158272632025</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.100818362685508</v>
+        <v>-1.097006177120145</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2405872284839205</v>
+        <v>-0.23226349431765</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.5515685193206861</v>
       </c>
       <c r="E64" t="n">
-        <v>0.5447113175960504</v>
+        <v>0.5711294277529524</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.087220934814875</v>
+        <v>-1.082210049766876</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2914144226246341</v>
+        <v>-0.280830534013637</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.579812348510322</v>
       </c>
       <c r="E65" t="n">
-        <v>0.4598577026967096</v>
+        <v>0.4877475413292475</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.054584479838793</v>
+        <v>-1.050934359611521</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.324087378802989</v>
+        <v>-0.3124318148932649</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.6069615033654778</v>
       </c>
       <c r="E66" t="n">
-        <v>0.4112220407404499</v>
+        <v>0.4382037294604427</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.070550105712879</v>
+        <v>-1.066683898368153</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.352856166386254</v>
+        <v>-0.341326166612348</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.6325832901431248</v>
       </c>
       <c r="E67" t="n">
-        <v>0.3826722603708212</v>
+        <v>0.4133084494623585</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.089210980362784</v>
+        <v>-1.084300838633058</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3865613765648813</v>
+        <v>-0.3719769561847943</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.6559501809618105</v>
       </c>
       <c r="E68" t="n">
-        <v>0.3034266901886606</v>
+        <v>0.334045358703107</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.104304957526598</v>
+        <v>-1.10054825378869</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3967291514699695</v>
+        <v>-0.3842574206774274</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.6761229836067212</v>
       </c>
       <c r="E69" t="n">
-        <v>0.1988215447155069</v>
+        <v>0.2319631763310435</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.145630158691678</v>
+        <v>-1.142299788996315</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4202578264549632</v>
+        <v>-0.4056967668443308</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.6923524562072594</v>
       </c>
       <c r="E70" t="n">
-        <v>0.1353766149731603</v>
+        <v>0.1693446338081512</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.19388474809621</v>
+        <v>-1.190554378400847</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4369271955088678</v>
+        <v>-0.4238451646143259</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.7037613511463462</v>
       </c>
       <c r="E71" t="n">
-        <v>0.08491005271090116</v>
+        <v>0.1150658859805294</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.279894721083551</v>
+        <v>-1.279720975360732</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4975381719067606</v>
+        <v>-0.4856110390521274</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.7089948624346841</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.001983249371439144</v>
+        <v>0.03136716912109735</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.315819204360359</v>
+        <v>-1.314512461318996</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4912512048273078</v>
+        <v>-0.4802220015485835</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.70686758527088</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.0153529097398901</v>
+        <v>0.01731274619801022</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.306153685998543</v>
+        <v>-1.304950606371635</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5411673289592943</v>
+        <v>-0.5301366656324792</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.6962588773338102</v>
       </c>
       <c r="E74" t="n">
-        <v>0.01468465963437456</v>
+        <v>0.04619833762854792</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.346232006093987</v>
+        <v>-1.345478621279078</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5260412307374802</v>
+        <v>-0.5180211865741188</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.6773709261983344</v>
       </c>
       <c r="E75" t="n">
-        <v>0.02017882060046399</v>
+        <v>0.05275103346054616</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.396485401334974</v>
+        <v>-1.396483941286883</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4768507505066752</v>
+        <v>-0.4676466073415868</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.6512826562424661</v>
       </c>
       <c r="E76" t="n">
-        <v>0.07200176753917735</v>
+        <v>0.1016889253716239</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.342767311974261</v>
+        <v>-1.342205193459261</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.487313455126127</v>
+        <v>-0.4780552901816749</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.6187881367801885</v>
       </c>
       <c r="E77" t="n">
-        <v>0.1853482209326015</v>
+        <v>0.2151098412176844</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.341044455226989</v>
+        <v>-1.34098167315908</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4329091431626871</v>
+        <v>-0.4242568981759621</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.5805314030234967</v>
       </c>
       <c r="E78" t="n">
-        <v>0.2701186130907605</v>
+        <v>0.2964608007469353</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.307312964182725</v>
+        <v>-1.306781506677634</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4342801283200504</v>
+        <v>-0.4276296092659612</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.5370662336800747</v>
       </c>
       <c r="E79" t="n">
-        <v>0.3625235967162811</v>
+        <v>0.3865443079079111</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.322357299711448</v>
+        <v>-1.315973969457995</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4022787942635135</v>
+        <v>-0.3959232049237879</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.4890193942460903</v>
       </c>
       <c r="E80" t="n">
-        <v>0.4654263261154353</v>
+        <v>0.485085873659521</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.338017775534535</v>
+        <v>-1.335269965027445</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3442068414957109</v>
+        <v>-0.3394120435651667</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.4369857454908216</v>
       </c>
       <c r="E81" t="n">
-        <v>0.5645460709110451</v>
+        <v>0.58023574769595</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.286371494414821</v>
+        <v>-1.283988695930459</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2925941414820884</v>
+        <v>-0.2886242707229076</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.3818236894933647</v>
       </c>
       <c r="E82" t="n">
-        <v>0.700571451300554</v>
+        <v>0.7120328288141873</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.221282550522112</v>
+        <v>-1.216496512880113</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2594408294818246</v>
+        <v>-0.2558301305530074</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.3243050584345535</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8561979773105123</v>
+        <v>0.8649991472025099</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.165421110563945</v>
+        <v>-1.162017738464037</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2160262994986544</v>
+        <v>-0.2131762856252006</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2657862863489232</v>
       </c>
       <c r="E84" t="n">
-        <v>1.025519754413194</v>
+        <v>1.032022808610101</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.074346230749242</v>
+        <v>-1.070512144462516</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1659028485377588</v>
+        <v>-0.1666124319099404</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2077019562776277</v>
       </c>
       <c r="E85" t="n">
-        <v>1.120271035320805</v>
+        <v>1.121525216630896</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.003567479446261</v>
+        <v>-0.9971593283752628</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1312865683504044</v>
+        <v>-0.1319129289814042</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1508966823053713</v>
       </c>
       <c r="E86" t="n">
-        <v>1.28550029762467</v>
+        <v>1.282851770387761</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9271222815024635</v>
+        <v>-0.9210674620694651</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.04640959268160903</v>
+        <v>-0.04793534293660862</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.09544627402294756</v>
       </c>
       <c r="E87" t="n">
-        <v>1.383357100821643</v>
+        <v>1.383114732838552</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.8266607525113087</v>
+        <v>-0.821057087938401</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.01753276153961679</v>
+        <v>-0.01799267668825303</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.04131401246196136</v>
       </c>
       <c r="E88" t="n">
-        <v>1.470574533580165</v>
+        <v>1.469761286793529</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6988466825850702</v>
+        <v>-0.6954082693309802</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03375288770164217</v>
+        <v>0.03241256355418799</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.01027334922517381</v>
       </c>
       <c r="E89" t="n">
-        <v>1.568202109226867</v>
+        <v>1.566212063678958</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.5667210906463784</v>
+        <v>-0.561850370215107</v>
       </c>
       <c r="G89" t="n">
-        <v>0.07906986034726636</v>
+        <v>0.079395451071539</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.05690119796063682</v>
       </c>
       <c r="E90" t="n">
-        <v>1.628728402835487</v>
+        <v>1.624018287694215</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.4383230014837765</v>
+        <v>-0.4355532902553227</v>
       </c>
       <c r="G90" t="n">
-        <v>0.09230957643562644</v>
+        <v>0.09123206094453583</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.09484982669114839</v>
       </c>
       <c r="E91" t="n">
-        <v>1.67271089152602</v>
+        <v>1.665085060347204</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.2784725563468194</v>
+        <v>-0.273249964325639</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1066370283517135</v>
+        <v>0.1044688569367141</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1202809352550493</v>
       </c>
       <c r="E92" t="n">
-        <v>1.702663778111012</v>
+        <v>1.69436924490656</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.1191024670317713</v>
+        <v>-0.1168861140297719</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1033650605799871</v>
+        <v>0.1051682199722593</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1314668311682298</v>
       </c>
       <c r="E93" t="n">
-        <v>1.698672006630468</v>
+        <v>1.689914638181197</v>
       </c>
       <c r="F93" t="n">
-        <v>0.03917696635936799</v>
+        <v>0.03866740957564085</v>
       </c>
       <c r="G93" t="n">
-        <v>0.09911340053926099</v>
+        <v>0.1000784923273516</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.1297221289323685</v>
       </c>
       <c r="E94" t="n">
-        <v>1.647224292051118</v>
+        <v>1.637161640608575</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1495361613587929</v>
+        <v>0.1450421333349759</v>
       </c>
       <c r="G94" t="n">
-        <v>0.06030094213863504</v>
+        <v>0.06096088387572577</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.1193608703334458</v>
       </c>
       <c r="E95" t="n">
-        <v>1.557075082726051</v>
+        <v>1.544552250250327</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2343970764985883</v>
+        <v>0.2289437968790443</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01132800907337546</v>
+        <v>0.01266395307655692</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.1050284109057892</v>
       </c>
       <c r="E96" t="n">
-        <v>1.434000328902903</v>
+        <v>1.421895070181179</v>
       </c>
       <c r="F96" t="n">
-        <v>0.313800331874567</v>
+        <v>0.3069775271457506</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.02884375409988648</v>
+        <v>-0.02565646911743279</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.09085331212267432</v>
       </c>
       <c r="E97" t="n">
-        <v>1.279979855792944</v>
+        <v>1.266636476290129</v>
       </c>
       <c r="F97" t="n">
-        <v>0.36348576840819</v>
+        <v>0.3584661230716459</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.04932238862297188</v>
+        <v>-0.04619496561224545</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.07953983007592434</v>
       </c>
       <c r="E98" t="n">
-        <v>1.147017656298161</v>
+        <v>1.136741837834346</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3827160618135484</v>
+        <v>0.3783563582140951</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.08659449628768916</v>
+        <v>-0.08273558918341746</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.07420707484118093</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9933811758361117</v>
+        <v>0.9859553712457502</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3776467748419134</v>
+        <v>0.374376267118278</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1269268647509511</v>
+        <v>-0.1236461366906792</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.07399465383966213</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8849273435953227</v>
+        <v>0.8807851871614147</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3467638376230127</v>
+        <v>0.3453461309267403</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1411929946472199</v>
+        <v>-0.1375180536024027</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.07580061721712621</v>
       </c>
       <c r="E101" t="n">
-        <v>0.744628402443724</v>
+        <v>0.7425288532889973</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3477829511904669</v>
+        <v>0.3483363094169213</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.133819751788131</v>
+        <v>-0.13090987594295</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.07294303352143738</v>
       </c>
       <c r="E102" t="n">
-        <v>0.631248367944209</v>
+        <v>0.6271733737224828</v>
       </c>
       <c r="F102" t="n">
-        <v>0.3053641740052965</v>
+        <v>0.3047480337109331</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1949008636712964</v>
+        <v>-0.1944059073684784</v>
       </c>
     </row>
   </sheetData>
